--- a/weather_ui/设计稿/andorid/支持捐赠/色号表.xlsx
+++ b/weather_ui/设计稿/andorid/支持捐赠/色号表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>#FF6666</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>#750000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF3366</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +464,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -524,7 +528,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
